--- a/Output_testing/R1_201907/Country/HKD/MN/ITALY_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ITALY_201907_HKD_MN.xlsx
@@ -810,136 +810,435 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>7064.303803</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>27.22793679682703</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>7603.563564</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>29.77004942615091</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>9288.75657</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>32.80564193126976</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>4577.340346</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>29.53119544389086</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-4.774174032647982</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>3885.202774</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>14.97473190895398</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>3819.058149</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>14.95266645699792</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>4031.888025</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>14.23965348411799</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>2265.503711</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.61613684175038</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-7.623893400837122</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1163.788753</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>4.48558945017135</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1100.218674</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>4.307659695202649</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1188.347729</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>4.196956804026956</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>723.181448</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>4.665681611581871</v>
+      </c>
+      <c r="K20" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>1070.815286</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.127241939382978</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1302.605198</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.100058781756386</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1428.815969</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>5.046232475946373</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>681.058438</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>4.393920556697233</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-19.38958714373243</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1365.09418</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.261480690987835</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>1035.777654</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.055355320507272</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1160.002448</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.096848126194825</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>644.812845</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.160078279314891</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-0.375069729881905</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>476.154709</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.835242464608875</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>537.940513</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.106185543862835</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>749.179124</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.645919494079965</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>591.164563</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.813960712952266</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>27.03408694111335</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1262.366596</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.865537899957966</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1245.647583</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.877054002553402</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1036.840962</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>3.661871541439833</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>586.071613</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.781103007283209</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-5.617081654957301</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1097.282406</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>4.229254124964238</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>914.8761029999999</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.581992387630723</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>913.034362</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.224616570042952</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>479.713441</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.094922009811242</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-14.1610975802865</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>512.578065</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.975628957425785</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>533.34072</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.088176085033767</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>637.157732</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.25028702735526</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>432.615309</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.791063429063668</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>21.49935565914241</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>951.362382</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.666834769616549</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>889.670965</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.48330731743474</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>714.42339</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>2.523170646473717</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>386.577842</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.494047840763196</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>3.016797315939357</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>7096.108344</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>27.35052099710341</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>6558.284888</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>25.6774949828694</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>7166.063094</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>25.30880189905236</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>4131.977552</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>26.65789026689118</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-2.085397435277414</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1270,437 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>145.538079</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>59.40178268433382</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>108.171567</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>51.27704515048362</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>111.591345</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>67.10467105661468</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>64.442543</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>64.38982061488053</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>54.12480440387313</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>2.148631</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.8769698803762752</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>49.221748</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>23.33280236738853</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>16.279117</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>9.789332599021403</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>11.756519</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>11.7469006377578</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>8.025322531768019</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>8.53922</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>3.48530703592506</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>9.263076999999999</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>4.391017258365189</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>10.30694</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>6.198005932272473</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>8.048183</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.041598539116173</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-17.70041915794145</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>5.663539</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>2.311589621175702</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>6.793738</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.220465597642274</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>5.777377</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.474185055794886</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>3.321916</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.319198240480695</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-31.49673116488816</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>5.263841</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.148451740708262</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>7.07486</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.353727099593099</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>4.688334</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.819296701491881</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>2.052434</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>2.050754841935423</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-40.00913118152345</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>1.692543</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.690816260326553</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>1.057833</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.5014492440760476</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.851974</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.51232857726366</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>1.718429</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>1.717023101484505</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>106.9782931805754</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1.977368</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.8070683977006171</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>3.337761</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.582213572800728</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>3.113542</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.872306599861792</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>1.520024</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.518780422589983</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-12.76057345242858</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SYNTHETIC RUBBER; RECLAIMED RUBBER; WASTE, PAIRINGS AND SCRAP OF UNHARDENED RUBBER</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.9652500000000001</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.4575617161162537</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>2.467296</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.483691109550666</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>1.153932</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.152987933480066</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-36.0121107266436</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="n">
+        <v>2.837088</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>1.157965571555547</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.258031</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.5963499852757801</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>1.031489</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.6202786608900218</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>1.036757</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.035908797876299</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>37.55328619779677</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>0.722021</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.2946949336573653</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>0.87082</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.4127986465976234</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>0.72794</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.4377416030692353</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>0.600988</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.6004963136184092</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>41.24177737877288</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>70.623918</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>28.82535387424079</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>22.940464</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>10.87456936166085</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>9.459097999999999</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>5.688162104169296</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>4.430155</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.426530556780108</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-31.69825499001565</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1732,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>7064.303803</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>27.4875088351235</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>7603.563564</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>30.01798223533347</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>9288.75657</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>32.99945160113969</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>4577.340346</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>29.72311427438687</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-4.774174032647982</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>3885.202774</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>15.11749049230001</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>3819.058149</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>15.07719619984063</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>4031.888025</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>14.3237787253372</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>2265.503711</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>14.71112493305092</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-7.623893400837122</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1149.006081</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>4.470831901324181</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1093.219355</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>4.315902524059272</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1185.348667</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>4.21109711212315</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>722.800429</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>4.693529020081928</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>0.2951182101733396</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>1070.781444</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.166456486474567</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1302.528095</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>5.142229020331071</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1428.813558</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>5.076036119468808</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>681.058438</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>4.422475990429535</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-19.38935710743825</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1364.535182</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.30946486972056</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>1035.237096</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.086995327324945</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1159.665722</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>4.119855287222767</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>644.770133</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.186836655180768</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-0.3365304984003448</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>474.462166</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.846152620774658</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>536.8826800000001</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>2.119550210246421</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>748.32715</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.658524354917378</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>589.446134</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.827588397438681</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>26.89120373707583</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1116.828517</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>4.345627620844746</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1137.476016</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>4.490622660546734</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>925.2496169999999</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>3.287063206476573</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>521.62907</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.387215999789269</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-9.930248318343304</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1097.148111</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.269050317703551</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>914.782192</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.611453413589877</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>913.034362</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.243667008812188</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>479.713441</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.11503544591402</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-14.1610975802865</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>512.047266</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.992397855567684</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>532.6242099999999</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>2.102738267302334</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>636.494449</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.261224912708588</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>432.333332</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.807371106431253</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>21.64676891305537</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>950.2393479999999</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.697422025159752</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>888.427778</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.507409260527198</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>713.038549</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>2.533157254165438</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>385.977268</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.506356437773973</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>3.053380499069025</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>7015.496358</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>27.29759697500679</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>6466.229727</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>25.52792088089805</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>7117.598284</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>25.28614441762821</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>4099.362926</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>26.61935173952278</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-2.021579611705093</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2190,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>5718.757572</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>12.05141389267985</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>5952.971246</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>12.41949194550753</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>7489.705947</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>14.37043743133801</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>4219.590466</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>13.72554221545985</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-5.514858527415689</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>5243.70225</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>11.05030688031526</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>5538.511795</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>11.55481855792941</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>5592.275879</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>10.72985390703354</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>3518.127553</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>11.44381395236425</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>5.262380804590538</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3267.773155</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>6.886336114527859</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3323.244906</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>6.933178682955784</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>3650.453591</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.004095393956145</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>2342.388797</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>7.61935466896652</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>8.844376442570677</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2646.108545</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.576272272300452</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>2931.441133</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>6.115771105813094</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3311.5378</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>6.353820442773482</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1829.842283</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.95213628083639</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-1.300268736630994</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2980.178922</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>6.280274904309661</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>3008.56081</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>6.276663401065689</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>3271.587983</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>6.27716905623649</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1676.972562</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>5.454879538515589</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-14.75484914058359</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1743.050017</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>3.67321344296174</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1832.811364</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>3.823735246181075</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2163.165869</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.150448628296517</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1253.346803</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>4.076903811827918</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>6.193911439442368</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1221.909203</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>2.574988248623657</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1522.155736</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.175624427173672</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1947.521459</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.73669346577721</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1107.72961</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>3.603238192872027</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-0.3737098372669334</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2595.056215</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>5.468687232845718</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>2452.544996</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>5.116665538118206</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2387.298621</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>4.580490303059425</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1056.39967</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>3.436271454259859</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-32.58531501118703</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1487.129771</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>3.133900354544911</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1322.549134</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.759191610120363</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1590.282292</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>3.051261603201469</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1019.430976</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>3.316019175220934</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>15.5433522633474</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>351.375974</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.740471551959243</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>662.01704</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.38114480253761</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>1132.427398</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.172779169656219</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>996.714193</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>3.242125709355391</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>85.79353757018325</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>20197.959517</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>42.56413510493166</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>19385.677904</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>40.44371468259757</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>19582.587718</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>37.5729505986715</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>11722.071111</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>38.12971500032128</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>1.565593109841656</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
